--- a/academias/Inglés - Estadisticos 20242.xlsx
+++ b/academias/Inglés - Estadisticos 20242.xlsx
@@ -649,13 +649,13 @@
         <v>30.4</v>
       </c>
       <c r="I4" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -742,19 +742,19 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>31.6</v>
+        <v>36.8</v>
       </c>
       <c r="H7" s="1">
-        <v>68.40000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="I7" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -774,25 +774,25 @@
         <v>147</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
       <c r="H8" s="1">
-        <v>45.6</v>
+        <v>44.9</v>
       </c>
       <c r="I8" s="2">
         <v>6.1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1491,25 +1491,25 @@
         <v>634</v>
       </c>
       <c r="E29">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F29">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="1">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H29" s="1">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="I29" s="2">
         <v>7.3</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1580,25 +1580,25 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>72.2</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>27.8</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1650,25 +1650,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>21.7</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1685,25 +1685,25 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1720,25 +1720,25 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>47.4</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1787,25 +1787,25 @@
         <v>147</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F8">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>35.4</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J8">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1822,25 +1822,25 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1857,25 +1857,25 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>5.9</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J10">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1892,25 +1892,25 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1927,25 +1927,25 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1959,25 +1959,25 @@
         <v>113</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F13">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>93.8</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>6.2</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J13">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1994,25 +1994,25 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2029,25 +2029,25 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>38.5</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2064,25 +2064,25 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2099,25 +2099,25 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
-      </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2131,25 +2131,25 @@
         <v>62</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J18">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2166,25 +2166,25 @@
         <v>37</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>21.6</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J19">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2201,25 +2201,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2236,25 +2236,25 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>15.6</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J21">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2271,25 +2271,25 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F22">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J22">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2303,25 +2303,25 @@
         <v>147</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F23">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>10.2</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J23">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2338,25 +2338,25 @@
         <v>49</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J24">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2373,25 +2373,25 @@
         <v>38</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="H25" s="1">
-        <v>100</v>
+        <v>10.5</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J25">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2408,25 +2408,25 @@
         <v>40</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="H26" s="1">
-        <v>100</v>
+        <v>2.5</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J26">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2443,25 +2443,25 @@
         <v>38</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J27">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2475,25 +2475,25 @@
         <v>165</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F28">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>100</v>
+        <v>9.1</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J28">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2504,25 +2504,25 @@
         <v>634</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="F29">
-        <v>634</v>
+        <v>102</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>16.1</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J29">
-        <v>634</v>
+        <v>28</v>
       </c>
       <c r="K29" s="1">
-        <v>100</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -2593,19 +2593,19 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>52.8</v>
+        <v>72.2</v>
       </c>
       <c r="H2" s="1">
-        <v>47.2</v>
+        <v>27.8</v>
       </c>
       <c r="I2" s="2">
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2663,25 +2663,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="I4" s="2">
         <v>7</v>
       </c>
-      <c r="G4" s="1">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6.6</v>
-      </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2698,19 +2698,19 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>56.7</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>43.3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2733,19 +2733,19 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>90.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2768,19 +2768,19 @@
         <v>19</v>
       </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="I7" s="2">
         <v>6</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="H7" s="1">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.4</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2800,25 +2800,25 @@
         <v>147</v>
       </c>
       <c r="E8">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F8">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1">
-        <v>54.4</v>
+        <v>72.8</v>
       </c>
       <c r="H8" s="1">
-        <v>45.6</v>
+        <v>27.2</v>
       </c>
       <c r="I8" s="2">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2835,19 +2835,19 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>95.8</v>
+        <v>87.5</v>
       </c>
       <c r="H9" s="1">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="I9" s="2">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>5.9</v>
       </c>
       <c r="I10" s="2">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>6.5</v>
       </c>
       <c r="I11" s="2">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2940,19 +2940,19 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         <v>113</v>
       </c>
       <c r="E13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
-        <v>94.7</v>
+        <v>93.8</v>
       </c>
       <c r="H13" s="1">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="I13" s="2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3007,19 +3007,19 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I14" s="2">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>38.5</v>
       </c>
       <c r="I15" s="2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3144,19 +3144,19 @@
         <v>62</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1">
-        <v>69.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1">
-        <v>30.6</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>21.6</v>
       </c>
       <c r="I19" s="2">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>2.6</v>
       </c>
       <c r="I20" s="2">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3249,19 +3249,19 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>87.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>12.5</v>
+        <v>15.6</v>
       </c>
       <c r="I21" s="2">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3284,16 +3284,16 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>94.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="I22" s="2">
         <v>7.7</v>
@@ -3328,7 +3328,7 @@
         <v>10.2</v>
       </c>
       <c r="I23" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3351,19 +3351,19 @@
         <v>49</v>
       </c>
       <c r="E24">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>73.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>26.5</v>
+        <v>18.4</v>
       </c>
       <c r="I24" s="2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>10.5</v>
       </c>
       <c r="I25" s="2">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3456,19 +3456,19 @@
         <v>38</v>
       </c>
       <c r="E27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>94.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H27" s="1">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="I27" s="2">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3488,19 +3488,19 @@
         <v>165</v>
       </c>
       <c r="E28">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1">
-        <v>87.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H28" s="1">
-        <v>12.1</v>
+        <v>9.1</v>
       </c>
       <c r="I28" s="2">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3517,25 +3517,25 @@
         <v>634</v>
       </c>
       <c r="E29">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="F29">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="G29" s="1">
-        <v>80</v>
+        <v>85.8</v>
       </c>
       <c r="H29" s="1">
-        <v>20</v>
+        <v>14.2</v>
       </c>
       <c r="I29" s="2">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Inglés - Estadisticos 20242.xlsx
+++ b/academias/Inglés - Estadisticos 20242.xlsx
@@ -1615,25 +1615,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>21.4</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1787,25 +1787,25 @@
         <v>147</v>
       </c>
       <c r="E8">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
-        <v>64.59999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>35.4</v>
+        <v>20.4</v>
       </c>
       <c r="I8" s="2">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="J8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2504,25 +2504,25 @@
         <v>634</v>
       </c>
       <c r="E29">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="F29">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1">
-        <v>83.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>16.1</v>
+        <v>12.6</v>
       </c>
       <c r="I29" s="2">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>4.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2628,19 +2628,19 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>42.9</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>57.1</v>
+        <v>21.4</v>
       </c>
       <c r="I3" s="2">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>147</v>
       </c>
       <c r="E8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
-        <v>72.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>27.2</v>
+        <v>20.4</v>
       </c>
       <c r="I8" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3517,19 +3517,19 @@
         <v>634</v>
       </c>
       <c r="E29">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F29">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1">
-        <v>85.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="I29" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J29">
         <v>0</v>

--- a/academias/Inglés - Estadisticos 20242.xlsx
+++ b/academias/Inglés - Estadisticos 20242.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="44">
   <si>
     <t>Docente</t>
   </si>
@@ -51,21 +51,27 @@
     <t>por_blancos</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
-  </si>
-  <si>
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
     <t>Ruiz Delgado Nemi</t>
   </si>
   <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
     <t>Ingles II</t>
   </si>
   <si>
@@ -81,67 +87,67 @@
     <t>2AEV</t>
   </si>
   <si>
+    <t>4AEM</t>
+  </si>
+  <si>
+    <t>4ALCM</t>
+  </si>
+  <si>
+    <t>4APM</t>
+  </si>
+  <si>
+    <t>4BEM</t>
+  </si>
+  <si>
     <t>2ALCV</t>
   </si>
   <si>
     <t>2APV</t>
   </si>
   <si>
+    <t>4AEV</t>
+  </si>
+  <si>
+    <t>4ALCV</t>
+  </si>
+  <si>
+    <t>4APV</t>
+  </si>
+  <si>
+    <t>4ARHV</t>
+  </si>
+  <si>
+    <t>4ASV</t>
+  </si>
+  <si>
+    <t>2ASV</t>
+  </si>
+  <si>
+    <t>2AEM</t>
+  </si>
+  <si>
+    <t>2ALCM</t>
+  </si>
+  <si>
+    <t>2APM</t>
+  </si>
+  <si>
+    <t>2BEM</t>
+  </si>
+  <si>
+    <t>2ARHM</t>
+  </si>
+  <si>
+    <t>2BLCM</t>
+  </si>
+  <si>
+    <t>4ARHM</t>
+  </si>
+  <si>
+    <t>4BLCM</t>
+  </si>
+  <si>
     <t>2ARHV</t>
-  </si>
-  <si>
-    <t>2ASV</t>
-  </si>
-  <si>
-    <t>4AEV</t>
-  </si>
-  <si>
-    <t>4AEM</t>
-  </si>
-  <si>
-    <t>4ALCM</t>
-  </si>
-  <si>
-    <t>4APM</t>
-  </si>
-  <si>
-    <t>4BEM</t>
-  </si>
-  <si>
-    <t>4ALCV</t>
-  </si>
-  <si>
-    <t>4APV</t>
-  </si>
-  <si>
-    <t>4ARHV</t>
-  </si>
-  <si>
-    <t>4ASV</t>
-  </si>
-  <si>
-    <t>2AEM</t>
-  </si>
-  <si>
-    <t>2ALCM</t>
-  </si>
-  <si>
-    <t>2APM</t>
-  </si>
-  <si>
-    <t>2BEM</t>
-  </si>
-  <si>
-    <t>2ARHM</t>
-  </si>
-  <si>
-    <t>2BLCM</t>
-  </si>
-  <si>
-    <t>4ARHM</t>
-  </si>
-  <si>
-    <t>4BLCM</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -593,28 +599,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>42.9</v>
+        <v>95.8</v>
       </c>
       <c r="H3" s="1">
-        <v>57.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" s="2">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -628,28 +634,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>69.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>30.4</v>
+        <v>5.9</v>
       </c>
       <c r="I4" s="2">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -663,28 +669,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>56.7</v>
+        <v>93.5</v>
       </c>
       <c r="H5" s="1">
-        <v>43.3</v>
+        <v>6.5</v>
       </c>
       <c r="I5" s="2">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -698,28 +704,28 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
       <c r="E6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>90.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="H6" s="1">
-        <v>9.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" s="2">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -733,28 +739,25 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
-        <v>36.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>63.2</v>
+        <v>15.4</v>
       </c>
       <c r="I7" s="2">
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -765,28 +768,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>55.1</v>
+        <v>42.9</v>
       </c>
       <c r="H8" s="1">
-        <v>44.9</v>
+        <v>57.1</v>
       </c>
       <c r="I8" s="2">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -800,28 +806,25 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>95.8</v>
+        <v>42.9</v>
       </c>
       <c r="H9" s="1">
-        <v>4.2</v>
+        <v>57.1</v>
       </c>
       <c r="I9" s="2">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -832,31 +835,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1">
-        <v>94.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>5.9</v>
+        <v>30.4</v>
       </c>
       <c r="I10" s="2">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -867,31 +870,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>29</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11" s="1">
-        <v>93.5</v>
+        <v>36.8</v>
       </c>
       <c r="H11" s="1">
-        <v>6.5</v>
+        <v>63.2</v>
       </c>
       <c r="I11" s="2">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -902,31 +905,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>23</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12" s="1">
-        <v>95.8</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1">
-        <v>4.2</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -937,28 +940,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>94.7</v>
+        <v>61.5</v>
       </c>
       <c r="H13" s="1">
-        <v>5.3</v>
+        <v>38.5</v>
       </c>
       <c r="I13" s="2">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -972,28 +978,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>6.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1007,28 +1013,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>61.5</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1">
-        <v>38.5</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1042,28 +1048,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>63.5</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="I16" s="2">
-        <v>9.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1074,31 +1077,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>80</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>9.1</v>
       </c>
       <c r="I17" s="2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1109,28 +1112,28 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>69.40000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>30.6</v>
+        <v>9.1</v>
       </c>
       <c r="I18" s="2">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1141,13 +1144,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -1176,13 +1179,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -1211,13 +1214,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>32</v>
@@ -1246,13 +1249,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>39</v>
@@ -1281,10 +1284,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>147</v>
@@ -1313,13 +1316,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>49</v>
@@ -1348,13 +1351,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>38</v>
@@ -1383,13 +1386,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -1418,13 +1421,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -1453,10 +1456,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>165</v>
@@ -1484,31 +1487,98 @@
       </c>
     </row>
     <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
         <v>634</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>508</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>126</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G31" s="1">
         <v>80.09999999999999</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H31" s="1">
         <v>19.9</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I31" s="2">
         <v>7.3</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1519,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1571,10 +1641,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -1606,28 +1676,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
       <c r="F3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>78.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="H3" s="1">
-        <v>21.4</v>
+        <v>12.5</v>
       </c>
       <c r="I3" s="2">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1641,28 +1711,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>78.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>21.7</v>
+        <v>5.9</v>
       </c>
       <c r="I4" s="2">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1676,25 +1746,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I5" s="2">
         <v>8</v>
@@ -1711,16 +1781,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
       <c r="E6">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1732,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1746,28 +1816,25 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>132</v>
+      </c>
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
       <c r="G7" s="1">
-        <v>52.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>47.4</v>
+        <v>11.4</v>
       </c>
       <c r="I7" s="2">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1778,28 +1845,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <v>79.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="I8" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1813,28 +1883,25 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>87.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>12.5</v>
+        <v>21.4</v>
       </c>
       <c r="I9" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1845,31 +1912,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>94.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="H10" s="1">
-        <v>5.9</v>
+        <v>21.7</v>
       </c>
       <c r="I10" s="2">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1880,31 +1947,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>93.5</v>
+        <v>52.6</v>
       </c>
       <c r="H11" s="1">
-        <v>6.5</v>
+        <v>47.4</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1915,31 +1982,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1950,28 +2017,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>93.8</v>
+        <v>61.5</v>
       </c>
       <c r="H13" s="1">
-        <v>6.2</v>
+        <v>38.5</v>
       </c>
       <c r="I13" s="2">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1985,28 +2055,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2020,28 +2090,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>61.5</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
-        <v>38.5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2055,28 +2125,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2087,31 +2154,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2122,28 +2189,28 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2154,13 +2221,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -2189,13 +2256,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -2224,13 +2291,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>32</v>
@@ -2259,13 +2326,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>39</v>
@@ -2294,10 +2361,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>147</v>
@@ -2326,13 +2393,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>49</v>
@@ -2361,13 +2428,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>38</v>
@@ -2396,13 +2463,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -2431,13 +2498,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -2466,10 +2533,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>165</v>
@@ -2497,23 +2564,29 @@
       </c>
     </row>
     <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>634</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>554</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>87.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="H29" s="1">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>8</v>
@@ -2522,6 +2595,67 @@
         <v>0</v>
       </c>
       <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>634</v>
+      </c>
+      <c r="E31">
+        <v>554</v>
+      </c>
+      <c r="F31">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2532,7 +2666,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,10 +2718,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -2619,28 +2753,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
       <c r="F3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>78.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="H3" s="1">
-        <v>21.4</v>
+        <v>12.5</v>
       </c>
       <c r="I3" s="2">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2654,28 +2788,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>78.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>21.7</v>
+        <v>5.9</v>
       </c>
       <c r="I4" s="2">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2689,28 +2823,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I5" s="2">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2724,16 +2858,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
       <c r="E6">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2745,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2759,28 +2893,25 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>132</v>
+      </c>
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
       <c r="G7" s="1">
-        <v>52.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>47.4</v>
+        <v>11.4</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2791,28 +2922,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
       <c r="D8">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <v>79.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="I8" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2826,28 +2960,25 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1">
-        <v>87.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>12.5</v>
+        <v>21.4</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2858,31 +2989,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
-        <v>94.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="H10" s="1">
-        <v>5.9</v>
+        <v>21.7</v>
       </c>
       <c r="I10" s="2">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2893,31 +3024,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>93.5</v>
+        <v>52.6</v>
       </c>
       <c r="H11" s="1">
-        <v>6.5</v>
+        <v>47.4</v>
       </c>
       <c r="I11" s="2">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2928,31 +3059,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2963,28 +3094,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>93.8</v>
+        <v>61.5</v>
       </c>
       <c r="H13" s="1">
-        <v>6.2</v>
+        <v>38.5</v>
       </c>
       <c r="I13" s="2">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2998,28 +3132,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3033,28 +3167,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>61.5</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
-        <v>38.5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3068,28 +3202,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3100,31 +3231,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3135,28 +3266,28 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3167,13 +3298,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -3202,13 +3333,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -3237,13 +3368,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>32</v>
@@ -3272,13 +3403,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>39</v>
@@ -3307,10 +3438,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>147</v>
@@ -3339,13 +3470,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>49</v>
@@ -3374,13 +3505,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>38</v>
@@ -3409,13 +3540,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -3444,13 +3575,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -3479,10 +3610,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>165</v>
@@ -3510,31 +3641,98 @@
       </c>
     </row>
     <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
       </c>
       <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
         <v>634</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>554</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>80</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G31" s="1">
         <v>87.40000000000001</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H31" s="1">
         <v>12.6</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I31" s="2">
         <v>7.8</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <v>0</v>
       </c>
     </row>
